--- a/results/overall.xlsx
+++ b/results/overall.xlsx
@@ -4,20 +4,38 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="13860" windowHeight="6420" activeTab="3"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="13860" windowHeight="6420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Karate" sheetId="1" r:id="rId1"/>
     <sheet name="Sawmill" sheetId="2" r:id="rId2"/>
     <sheet name="NCAA Football" sheetId="3" r:id="rId3"/>
     <sheet name="Overall" sheetId="5" r:id="rId4"/>
+    <sheet name="Clustering Algorithms" sheetId="6" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="clusterings_compare" localSheetId="4">'Clustering Algorithms'!$A$3:$C$231</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="clusterings_compare" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="852" sourceFile="C:\Users\Lucas\Desktop\SourceCode\datamining-criteria\results\clusterings_compare.txt" decimal="," thousands=" " semicolon="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2763" uniqueCount="231">
   <si>
     <t>Criteria</t>
   </si>
@@ -110,6 +128,606 @@
   </si>
   <si>
     <t>OVERALL AVERAGE RESULTS</t>
+  </si>
+  <si>
+    <t>###### DATASET: Zahary Karate Dataset - Weightened Undirected. #####</t>
+  </si>
+  <si>
+    <t>For clustering: Jung Bicomponent Clusterer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [Jaccard] Jaccard Coefficient External Evaluation: 0.4605089949506484</t>
+  </si>
+  <si>
+    <t>Modularity Q Criteria Calculator</t>
+  </si>
+  <si>
+    <t>Neighbour Overlap Distance Calculator</t>
+  </si>
+  <si>
+    <t>0.10046756994808943</t>
+  </si>
+  <si>
+    <t>Edge Path Distance Calculator</t>
+  </si>
+  <si>
+    <t>Adjacency Relation Distance Calculator</t>
+  </si>
+  <si>
+    <t>Pearson Correlation Distance Calculator</t>
+  </si>
+  <si>
+    <t>C Index Criteria Calculator</t>
+  </si>
+  <si>
+    <t>0.18064609786610283</t>
+  </si>
+  <si>
+    <t>0.916919457375983</t>
+  </si>
+  <si>
+    <t>0.4985120814096288</t>
+  </si>
+  <si>
+    <t>0.2258478458692724</t>
+  </si>
+  <si>
+    <t>Davies Bouldin Criteria Calculator</t>
+  </si>
+  <si>
+    <t>1.1022267881136072</t>
+  </si>
+  <si>
+    <t>Infinity</t>
+  </si>
+  <si>
+    <t>1.4570405169471183</t>
+  </si>
+  <si>
+    <t>0.9654637132956236</t>
+  </si>
+  <si>
+    <t>Silhouette Width Criteria 2 Calculator</t>
+  </si>
+  <si>
+    <t>-0.027344210837022036</t>
+  </si>
+  <si>
+    <t>-0.9399403239556694</t>
+  </si>
+  <si>
+    <t>-0.15745426903474244</t>
+  </si>
+  <si>
+    <t>-0.09474537669292894</t>
+  </si>
+  <si>
+    <t>Variance Ratio Criteria Calculator</t>
+  </si>
+  <si>
+    <t>19.239870629476638</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>3.4789342341615765</t>
+  </si>
+  <si>
+    <t>12.6025350107332</t>
+  </si>
+  <si>
+    <t>PBM Criteria Calculator</t>
+  </si>
+  <si>
+    <t>0.014039332551747304</t>
+  </si>
+  <si>
+    <t>0.016666666666666666</t>
+  </si>
+  <si>
+    <t>0.013773725298722669</t>
+  </si>
+  <si>
+    <t>0.01756247213035195</t>
+  </si>
+  <si>
+    <t>Dunn Index Criteria Calculator</t>
+  </si>
+  <si>
+    <t>0.7574074074074079</t>
+  </si>
+  <si>
+    <t>5.562684646268003E-309</t>
+  </si>
+  <si>
+    <t>0.2548235957188129</t>
+  </si>
+  <si>
+    <t>0.3292723778722483</t>
+  </si>
+  <si>
+    <t>Z-Statistics Criteria Calculator</t>
+  </si>
+  <si>
+    <t>390.23776422909236</t>
+  </si>
+  <si>
+    <t>32.89135968974835</t>
+  </si>
+  <si>
+    <t>316.6988678293565</t>
+  </si>
+  <si>
+    <t>194.52756369360802</t>
+  </si>
+  <si>
+    <t>Point Biserial Criteria Calculator</t>
+  </si>
+  <si>
+    <t>55.63821204182208</t>
+  </si>
+  <si>
+    <t>50.91231568412392</t>
+  </si>
+  <si>
+    <t>59.291096242048255</t>
+  </si>
+  <si>
+    <t>46.487156918183686</t>
+  </si>
+  <si>
+    <t>For clustering: Jung Edge Betweenness Clusterer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [Jaccard] Jaccard Coefficient External Evaluation: 0.4866310160427806</t>
+  </si>
+  <si>
+    <t>0.025552369708213844</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.4285714285714287</t>
+  </si>
+  <si>
+    <t>-0.2000000000000001</t>
+  </si>
+  <si>
+    <t>4.9E-324</t>
+  </si>
+  <si>
+    <t>0.029411764705882356</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>1.668805393880401E-308</t>
+  </si>
+  <si>
+    <t>609.0603919263048</t>
+  </si>
+  <si>
+    <t>36.07588943941051</t>
+  </si>
+  <si>
+    <t>479.01752235192373</t>
+  </si>
+  <si>
+    <t>315.0580627947995</t>
+  </si>
+  <si>
+    <t>For clustering: Jung Voltage Clusterer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [Jaccard] Jaccard Coefficient External Evaluation: 0.5187105584220729</t>
+  </si>
+  <si>
+    <t>0.12809729952587093</t>
+  </si>
+  <si>
+    <t>0.2475895522660684</t>
+  </si>
+  <si>
+    <t>0.8263149947000463</t>
+  </si>
+  <si>
+    <t>0.43187310694120346</t>
+  </si>
+  <si>
+    <t>0.2789870794384364</t>
+  </si>
+  <si>
+    <t>1.392261098430386</t>
+  </si>
+  <si>
+    <t>2.307484603443498</t>
+  </si>
+  <si>
+    <t>1.1875274297517227</t>
+  </si>
+  <si>
+    <t>-0.004260816262939314</t>
+  </si>
+  <si>
+    <t>-0.7537472707243592</t>
+  </si>
+  <si>
+    <t>-0.008712130142009744</t>
+  </si>
+  <si>
+    <t>-0.024243677206292433</t>
+  </si>
+  <si>
+    <t>28.65923300477113</t>
+  </si>
+  <si>
+    <t>8.274223223783693E-306</t>
+  </si>
+  <si>
+    <t>10.490549192511583</t>
+  </si>
+  <si>
+    <t>28.44695419805719</t>
+  </si>
+  <si>
+    <t>0.019660098204090756</t>
+  </si>
+  <si>
+    <t>3.80249229034177E-309</t>
+  </si>
+  <si>
+    <t>0.013509172937091585</t>
+  </si>
+  <si>
+    <t>0.02323102775825919</t>
+  </si>
+  <si>
+    <t>0.5061823361823361</t>
+  </si>
+  <si>
+    <t>0.15921612870199006</t>
+  </si>
+  <si>
+    <t>0.18740978296128236</t>
+  </si>
+  <si>
+    <t>346.8773762962795</t>
+  </si>
+  <si>
+    <t>29.52579699323996</t>
+  </si>
+  <si>
+    <t>272.93485473967434</t>
+  </si>
+  <si>
+    <t>172.19629018537836</t>
+  </si>
+  <si>
+    <t>29.00668096788241</t>
+  </si>
+  <si>
+    <t>40.113261178543624</t>
+  </si>
+  <si>
+    <t>27.75077753608798</t>
+  </si>
+  <si>
+    <t>20.57098804580455</t>
+  </si>
+  <si>
+    <t>For clustering: JavaML Density Based Spatial Clustering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [Jaccard] Jaccard Coefficient External Evaluation: 0.4526717087868168</t>
+  </si>
+  <si>
+    <t>0.021675221126581313</t>
+  </si>
+  <si>
+    <t>0.262039093595844</t>
+  </si>
+  <si>
+    <t>0.8492958328170821</t>
+  </si>
+  <si>
+    <t>0.558564512088685</t>
+  </si>
+  <si>
+    <t>0.3547832539308114</t>
+  </si>
+  <si>
+    <t>1.1127941772401195</t>
+  </si>
+  <si>
+    <t>1.2980264106305408</t>
+  </si>
+  <si>
+    <t>0.8386866098842202</t>
+  </si>
+  <si>
+    <t>-0.016609213100506857</t>
+  </si>
+  <si>
+    <t>-0.7273075301279422</t>
+  </si>
+  <si>
+    <t>-0.03514983343082651</t>
+  </si>
+  <si>
+    <t>-0.04840170272804344</t>
+  </si>
+  <si>
+    <t>5.0978434527518806</t>
+  </si>
+  <si>
+    <t>5.81683752699527E-306</t>
+  </si>
+  <si>
+    <t>4.234576743879832</t>
+  </si>
+  <si>
+    <t>5.696712179536347</t>
+  </si>
+  <si>
+    <t>0.019614075103632243</t>
+  </si>
+  <si>
+    <t>1.650263111726175E-309</t>
+  </si>
+  <si>
+    <t>0.017460327313029173</t>
+  </si>
+  <si>
+    <t>0.023525812774654476</t>
+  </si>
+  <si>
+    <t>0.6032223871104515</t>
+  </si>
+  <si>
+    <t>9.3947562914749E-310</t>
+  </si>
+  <si>
+    <t>0.24376003116884168</t>
+  </si>
+  <si>
+    <t>0.21459624380632653</t>
+  </si>
+  <si>
+    <t>503.46955871547294</t>
+  </si>
+  <si>
+    <t>27.83821941138085</t>
+  </si>
+  <si>
+    <t>411.2798888028743</t>
+  </si>
+  <si>
+    <t>277.5012953846243</t>
+  </si>
+  <si>
+    <t>85.09624107865456</t>
+  </si>
+  <si>
+    <t>32.721512240961836</t>
+  </si>
+  <si>
+    <t>81.6617565661445</t>
+  </si>
+  <si>
+    <t>82.78286251258804</t>
+  </si>
+  <si>
+    <t>For clustering: JavaML KNode Clustering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [Jaccard] Jaccard Coefficient External Evaluation: 0.495616880650531</t>
+  </si>
+  <si>
+    <t>0.03703325880534378</t>
+  </si>
+  <si>
+    <t>0.16444965781240056</t>
+  </si>
+  <si>
+    <t>0.5844549976285407</t>
+  </si>
+  <si>
+    <t>0.13367560477810442</t>
+  </si>
+  <si>
+    <t>0.19711628953958574</t>
+  </si>
+  <si>
+    <t>1.1335422983649406</t>
+  </si>
+  <si>
+    <t>1.049729747166226</t>
+  </si>
+  <si>
+    <t>0.9536897948681037</t>
+  </si>
+  <si>
+    <t>-0.004485760022268611</t>
+  </si>
+  <si>
+    <t>-0.4214964398268393</t>
+  </si>
+  <si>
+    <t>0.007091764324836521</t>
+  </si>
+  <si>
+    <t>-0.011291886027816427</t>
+  </si>
+  <si>
+    <t>5.963973383298846</t>
+  </si>
+  <si>
+    <t>3.8400000000000003</t>
+  </si>
+  <si>
+    <t>5.849053892822862</t>
+  </si>
+  <si>
+    <t>7.24247488735247</t>
+  </si>
+  <si>
+    <t>0.01903750785850099</t>
+  </si>
+  <si>
+    <t>4.406110624662539E305</t>
+  </si>
+  <si>
+    <t>0.030778091073152398</t>
+  </si>
+  <si>
+    <t>0.02329879384851664</t>
+  </si>
+  <si>
+    <t>0.63421199445618</t>
+  </si>
+  <si>
+    <t>1.020708484299335E-309</t>
+  </si>
+  <si>
+    <t>0.4724121677126524</t>
+  </si>
+  <si>
+    <t>0.36767879767031264</t>
+  </si>
+  <si>
+    <t>505.3776222990005</t>
+  </si>
+  <si>
+    <t>20.73916072443412</t>
+  </si>
+  <si>
+    <t>373.87650297977484</t>
+  </si>
+  <si>
+    <t>272.46424185337514</t>
+  </si>
+  <si>
+    <t>72.45628572158397</t>
+  </si>
+  <si>
+    <t>10.995626375615204</t>
+  </si>
+  <si>
+    <t>51.594122637732426</t>
+  </si>
+  <si>
+    <t>65.78926192806186</t>
+  </si>
+  <si>
+    <t>For clustering: JavaML Self Organizing Maps Clustering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [Jaccard] Jaccard Coefficient External Evaluation: 0.6724051154863459</t>
+  </si>
+  <si>
+    <t>0.14105094518991249</t>
+  </si>
+  <si>
+    <t>0.22555020106813498</t>
+  </si>
+  <si>
+    <t>0.6250526576632385</t>
+  </si>
+  <si>
+    <t>0.3239879888281027</t>
+  </si>
+  <si>
+    <t>0.24271250242535564</t>
+  </si>
+  <si>
+    <t>1.4269828253455654</t>
+  </si>
+  <si>
+    <t>2.796286048908365</t>
+  </si>
+  <si>
+    <t>2.5186522430574736</t>
+  </si>
+  <si>
+    <t>-0.008997308056958845</t>
+  </si>
+  <si>
+    <t>-0.6793731631175604</t>
+  </si>
+  <si>
+    <t>-0.07055159848826993</t>
+  </si>
+  <si>
+    <t>-0.03648795844706942</t>
+  </si>
+  <si>
+    <t>15.23164284430627</t>
+  </si>
+  <si>
+    <t>1.9887006968390017E-306</t>
+  </si>
+  <si>
+    <t>8.649157608140422</t>
+  </si>
+  <si>
+    <t>18.621652270917544</t>
+  </si>
+  <si>
+    <t>0.016728882461919194</t>
+  </si>
+  <si>
+    <t>0.057726063829787226</t>
+  </si>
+  <si>
+    <t>0.012264561334440144</t>
+  </si>
+  <si>
+    <t>0.02157046392335171</t>
+  </si>
+  <si>
+    <t>0.7024086106047137</t>
+  </si>
+  <si>
+    <t>1.140791835393377E-309</t>
+  </si>
+  <si>
+    <t>0.23328003635899983</t>
+  </si>
+  <si>
+    <t>0.3995453059532888</t>
+  </si>
+  <si>
+    <t>271.73976122845016</t>
+  </si>
+  <si>
+    <t>19.88964268316983</t>
+  </si>
+  <si>
+    <t>203.26084429280385</t>
+  </si>
+  <si>
+    <t>138.698551214181</t>
+  </si>
+  <si>
+    <t>-13.363267709961429</t>
+  </si>
+  <si>
+    <t>15.161422543982209</t>
+  </si>
+  <si>
+    <t>-23.032266645955286</t>
+  </si>
+  <si>
+    <t>-23.69162105436469</t>
+  </si>
+  <si>
+    <t>CLUSTERING ALGORITHMS COMPARE</t>
   </si>
 </sst>
 </file>
@@ -189,6 +807,10 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="clusterings_compare" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8245,8 +8867,8 @@
   <sheetPr codeName="Arkusz3"/>
   <dimension ref="A1:S184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13600,13 +14222,12 @@
     <sortCondition descending="1" ref="D43"/>
   </sortState>
   <mergeCells count="24">
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
@@ -13616,16 +14237,2483 @@
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R2:S2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
     <mergeCell ref="N40:O40"/>
     <mergeCell ref="P40:Q40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C231"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="63.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>55</v>
+      </c>
+      <c r="B63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>60</v>
+      </c>
+      <c r="B64" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B67" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
+        <v>35</v>
+      </c>
+      <c r="C68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" t="s">
+        <v>38</v>
+      </c>
+      <c r="C70" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>65</v>
+      </c>
+      <c r="B71" t="s">
+        <v>39</v>
+      </c>
+      <c r="C71" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73" t="s">
+        <v>37</v>
+      </c>
+      <c r="C73" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74" t="s">
+        <v>38</v>
+      </c>
+      <c r="C74" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>70</v>
+      </c>
+      <c r="B75" t="s">
+        <v>39</v>
+      </c>
+      <c r="C75" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>37</v>
+      </c>
+      <c r="C77" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>75</v>
+      </c>
+      <c r="B79" t="s">
+        <v>39</v>
+      </c>
+      <c r="C79" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>34</v>
+      </c>
+      <c r="B82" t="s">
+        <v>35</v>
+      </c>
+      <c r="C82" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>34</v>
+      </c>
+      <c r="B83" t="s">
+        <v>37</v>
+      </c>
+      <c r="C83" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>34</v>
+      </c>
+      <c r="B84" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85" t="s">
+        <v>39</v>
+      </c>
+      <c r="C85" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>40</v>
+      </c>
+      <c r="B86" t="s">
+        <v>35</v>
+      </c>
+      <c r="C86" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>40</v>
+      </c>
+      <c r="B87" t="s">
+        <v>37</v>
+      </c>
+      <c r="C87" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>40</v>
+      </c>
+      <c r="B88" t="s">
+        <v>38</v>
+      </c>
+      <c r="C88" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>40</v>
+      </c>
+      <c r="B89" t="s">
+        <v>39</v>
+      </c>
+      <c r="C89" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>45</v>
+      </c>
+      <c r="B90" t="s">
+        <v>35</v>
+      </c>
+      <c r="C90" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>45</v>
+      </c>
+      <c r="B91" t="s">
+        <v>37</v>
+      </c>
+      <c r="C91" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>45</v>
+      </c>
+      <c r="B92" t="s">
+        <v>38</v>
+      </c>
+      <c r="C92" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>45</v>
+      </c>
+      <c r="B93" t="s">
+        <v>39</v>
+      </c>
+      <c r="C93" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>50</v>
+      </c>
+      <c r="B94" t="s">
+        <v>35</v>
+      </c>
+      <c r="C94" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>50</v>
+      </c>
+      <c r="B95" t="s">
+        <v>37</v>
+      </c>
+      <c r="C95" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>50</v>
+      </c>
+      <c r="B96" t="s">
+        <v>38</v>
+      </c>
+      <c r="C96" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>50</v>
+      </c>
+      <c r="B97" t="s">
+        <v>39</v>
+      </c>
+      <c r="C97" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>55</v>
+      </c>
+      <c r="B98" t="s">
+        <v>35</v>
+      </c>
+      <c r="C98" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>55</v>
+      </c>
+      <c r="B99" t="s">
+        <v>37</v>
+      </c>
+      <c r="C99" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>55</v>
+      </c>
+      <c r="B100" t="s">
+        <v>38</v>
+      </c>
+      <c r="C100" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>55</v>
+      </c>
+      <c r="B101" t="s">
+        <v>39</v>
+      </c>
+      <c r="C101" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>60</v>
+      </c>
+      <c r="B102" t="s">
+        <v>35</v>
+      </c>
+      <c r="C102" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>60</v>
+      </c>
+      <c r="B103" t="s">
+        <v>37</v>
+      </c>
+      <c r="C103" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>60</v>
+      </c>
+      <c r="B104" t="s">
+        <v>38</v>
+      </c>
+      <c r="C104" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>60</v>
+      </c>
+      <c r="B105" t="s">
+        <v>39</v>
+      </c>
+      <c r="C105" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>65</v>
+      </c>
+      <c r="B106" t="s">
+        <v>35</v>
+      </c>
+      <c r="C106" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>65</v>
+      </c>
+      <c r="B107" t="s">
+        <v>37</v>
+      </c>
+      <c r="C107" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>65</v>
+      </c>
+      <c r="B108" t="s">
+        <v>38</v>
+      </c>
+      <c r="C108" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>65</v>
+      </c>
+      <c r="B109" t="s">
+        <v>39</v>
+      </c>
+      <c r="C109" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>70</v>
+      </c>
+      <c r="B110" t="s">
+        <v>35</v>
+      </c>
+      <c r="C110" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>70</v>
+      </c>
+      <c r="B111" t="s">
+        <v>37</v>
+      </c>
+      <c r="C111" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>70</v>
+      </c>
+      <c r="B112" t="s">
+        <v>38</v>
+      </c>
+      <c r="C112" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>70</v>
+      </c>
+      <c r="B113" t="s">
+        <v>39</v>
+      </c>
+      <c r="C113" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>75</v>
+      </c>
+      <c r="B114" t="s">
+        <v>35</v>
+      </c>
+      <c r="C114" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>75</v>
+      </c>
+      <c r="B115" t="s">
+        <v>37</v>
+      </c>
+      <c r="C115" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>75</v>
+      </c>
+      <c r="B116" t="s">
+        <v>38</v>
+      </c>
+      <c r="C116" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>75</v>
+      </c>
+      <c r="B117" t="s">
+        <v>39</v>
+      </c>
+      <c r="C117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>34</v>
+      </c>
+      <c r="B120" t="s">
+        <v>35</v>
+      </c>
+      <c r="C120" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>34</v>
+      </c>
+      <c r="B121" t="s">
+        <v>37</v>
+      </c>
+      <c r="C121" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>34</v>
+      </c>
+      <c r="B122" t="s">
+        <v>38</v>
+      </c>
+      <c r="C122" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>34</v>
+      </c>
+      <c r="B123" t="s">
+        <v>39</v>
+      </c>
+      <c r="C123" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>40</v>
+      </c>
+      <c r="B124" t="s">
+        <v>35</v>
+      </c>
+      <c r="C124" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>40</v>
+      </c>
+      <c r="B125" t="s">
+        <v>37</v>
+      </c>
+      <c r="C125" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>40</v>
+      </c>
+      <c r="B126" t="s">
+        <v>38</v>
+      </c>
+      <c r="C126" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>40</v>
+      </c>
+      <c r="B127" t="s">
+        <v>39</v>
+      </c>
+      <c r="C127" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>45</v>
+      </c>
+      <c r="B128" t="s">
+        <v>35</v>
+      </c>
+      <c r="C128" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>45</v>
+      </c>
+      <c r="B129" t="s">
+        <v>37</v>
+      </c>
+      <c r="C129" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>45</v>
+      </c>
+      <c r="B130" t="s">
+        <v>38</v>
+      </c>
+      <c r="C130" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>45</v>
+      </c>
+      <c r="B131" t="s">
+        <v>39</v>
+      </c>
+      <c r="C131" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>50</v>
+      </c>
+      <c r="B132" t="s">
+        <v>35</v>
+      </c>
+      <c r="C132" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>50</v>
+      </c>
+      <c r="B133" t="s">
+        <v>37</v>
+      </c>
+      <c r="C133" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>50</v>
+      </c>
+      <c r="B134" t="s">
+        <v>38</v>
+      </c>
+      <c r="C134" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>50</v>
+      </c>
+      <c r="B135" t="s">
+        <v>39</v>
+      </c>
+      <c r="C135" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>55</v>
+      </c>
+      <c r="B136" t="s">
+        <v>35</v>
+      </c>
+      <c r="C136" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>55</v>
+      </c>
+      <c r="B137" t="s">
+        <v>37</v>
+      </c>
+      <c r="C137" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>55</v>
+      </c>
+      <c r="B138" t="s">
+        <v>38</v>
+      </c>
+      <c r="C138" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>55</v>
+      </c>
+      <c r="B139" t="s">
+        <v>39</v>
+      </c>
+      <c r="C139" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>60</v>
+      </c>
+      <c r="B140" t="s">
+        <v>35</v>
+      </c>
+      <c r="C140" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>60</v>
+      </c>
+      <c r="B141" t="s">
+        <v>37</v>
+      </c>
+      <c r="C141" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>60</v>
+      </c>
+      <c r="B142" t="s">
+        <v>38</v>
+      </c>
+      <c r="C142" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>60</v>
+      </c>
+      <c r="B143" t="s">
+        <v>39</v>
+      </c>
+      <c r="C143" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>65</v>
+      </c>
+      <c r="B144" t="s">
+        <v>35</v>
+      </c>
+      <c r="C144" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>65</v>
+      </c>
+      <c r="B145" t="s">
+        <v>37</v>
+      </c>
+      <c r="C145" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>65</v>
+      </c>
+      <c r="B146" t="s">
+        <v>38</v>
+      </c>
+      <c r="C146" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>65</v>
+      </c>
+      <c r="B147" t="s">
+        <v>39</v>
+      </c>
+      <c r="C147" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>70</v>
+      </c>
+      <c r="B148" t="s">
+        <v>35</v>
+      </c>
+      <c r="C148" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>70</v>
+      </c>
+      <c r="B149" t="s">
+        <v>37</v>
+      </c>
+      <c r="C149" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>70</v>
+      </c>
+      <c r="B150" t="s">
+        <v>38</v>
+      </c>
+      <c r="C150" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>70</v>
+      </c>
+      <c r="B151" t="s">
+        <v>39</v>
+      </c>
+      <c r="C151" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>75</v>
+      </c>
+      <c r="B152" t="s">
+        <v>35</v>
+      </c>
+      <c r="C152" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>75</v>
+      </c>
+      <c r="B153" t="s">
+        <v>37</v>
+      </c>
+      <c r="C153" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>75</v>
+      </c>
+      <c r="B154" t="s">
+        <v>38</v>
+      </c>
+      <c r="C154" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>75</v>
+      </c>
+      <c r="B155" t="s">
+        <v>39</v>
+      </c>
+      <c r="C155" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>34</v>
+      </c>
+      <c r="B158" t="s">
+        <v>35</v>
+      </c>
+      <c r="C158" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>34</v>
+      </c>
+      <c r="B159" t="s">
+        <v>37</v>
+      </c>
+      <c r="C159" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>34</v>
+      </c>
+      <c r="B160" t="s">
+        <v>38</v>
+      </c>
+      <c r="C160" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>34</v>
+      </c>
+      <c r="B161" t="s">
+        <v>39</v>
+      </c>
+      <c r="C161" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>40</v>
+      </c>
+      <c r="B162" t="s">
+        <v>35</v>
+      </c>
+      <c r="C162" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>40</v>
+      </c>
+      <c r="B163" t="s">
+        <v>37</v>
+      </c>
+      <c r="C163" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>40</v>
+      </c>
+      <c r="B164" t="s">
+        <v>38</v>
+      </c>
+      <c r="C164" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>40</v>
+      </c>
+      <c r="B165" t="s">
+        <v>39</v>
+      </c>
+      <c r="C165" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>45</v>
+      </c>
+      <c r="B166" t="s">
+        <v>35</v>
+      </c>
+      <c r="C166" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>45</v>
+      </c>
+      <c r="B167" t="s">
+        <v>37</v>
+      </c>
+      <c r="C167" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>45</v>
+      </c>
+      <c r="B168" t="s">
+        <v>38</v>
+      </c>
+      <c r="C168" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>45</v>
+      </c>
+      <c r="B169" t="s">
+        <v>39</v>
+      </c>
+      <c r="C169" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>50</v>
+      </c>
+      <c r="B170" t="s">
+        <v>35</v>
+      </c>
+      <c r="C170" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>50</v>
+      </c>
+      <c r="B171" t="s">
+        <v>37</v>
+      </c>
+      <c r="C171" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>50</v>
+      </c>
+      <c r="B172" t="s">
+        <v>38</v>
+      </c>
+      <c r="C172" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>50</v>
+      </c>
+      <c r="B173" t="s">
+        <v>39</v>
+      </c>
+      <c r="C173" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>55</v>
+      </c>
+      <c r="B174" t="s">
+        <v>35</v>
+      </c>
+      <c r="C174" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>55</v>
+      </c>
+      <c r="B175" t="s">
+        <v>37</v>
+      </c>
+      <c r="C175" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>55</v>
+      </c>
+      <c r="B176" t="s">
+        <v>38</v>
+      </c>
+      <c r="C176" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>55</v>
+      </c>
+      <c r="B177" t="s">
+        <v>39</v>
+      </c>
+      <c r="C177" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>60</v>
+      </c>
+      <c r="B178" t="s">
+        <v>35</v>
+      </c>
+      <c r="C178" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>60</v>
+      </c>
+      <c r="B179" t="s">
+        <v>37</v>
+      </c>
+      <c r="C179" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>60</v>
+      </c>
+      <c r="B180" t="s">
+        <v>38</v>
+      </c>
+      <c r="C180" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>60</v>
+      </c>
+      <c r="B181" t="s">
+        <v>39</v>
+      </c>
+      <c r="C181" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>65</v>
+      </c>
+      <c r="B182" t="s">
+        <v>35</v>
+      </c>
+      <c r="C182" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>65</v>
+      </c>
+      <c r="B183" t="s">
+        <v>37</v>
+      </c>
+      <c r="C183" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>65</v>
+      </c>
+      <c r="B184" t="s">
+        <v>38</v>
+      </c>
+      <c r="C184" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>65</v>
+      </c>
+      <c r="B185" t="s">
+        <v>39</v>
+      </c>
+      <c r="C185" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>70</v>
+      </c>
+      <c r="B186" t="s">
+        <v>35</v>
+      </c>
+      <c r="C186" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>70</v>
+      </c>
+      <c r="B187" t="s">
+        <v>37</v>
+      </c>
+      <c r="C187" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>70</v>
+      </c>
+      <c r="B188" t="s">
+        <v>38</v>
+      </c>
+      <c r="C188" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>70</v>
+      </c>
+      <c r="B189" t="s">
+        <v>39</v>
+      </c>
+      <c r="C189" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>75</v>
+      </c>
+      <c r="B190" t="s">
+        <v>35</v>
+      </c>
+      <c r="C190" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>75</v>
+      </c>
+      <c r="B191" t="s">
+        <v>37</v>
+      </c>
+      <c r="C191" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>75</v>
+      </c>
+      <c r="B192" t="s">
+        <v>38</v>
+      </c>
+      <c r="C192" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>75</v>
+      </c>
+      <c r="B193" t="s">
+        <v>39</v>
+      </c>
+      <c r="C193" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>34</v>
+      </c>
+      <c r="B196" t="s">
+        <v>35</v>
+      </c>
+      <c r="C196" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>34</v>
+      </c>
+      <c r="B197" t="s">
+        <v>37</v>
+      </c>
+      <c r="C197" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>34</v>
+      </c>
+      <c r="B198" t="s">
+        <v>38</v>
+      </c>
+      <c r="C198" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>34</v>
+      </c>
+      <c r="B199" t="s">
+        <v>39</v>
+      </c>
+      <c r="C199" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>40</v>
+      </c>
+      <c r="B200" t="s">
+        <v>35</v>
+      </c>
+      <c r="C200" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>40</v>
+      </c>
+      <c r="B201" t="s">
+        <v>37</v>
+      </c>
+      <c r="C201" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>40</v>
+      </c>
+      <c r="B202" t="s">
+        <v>38</v>
+      </c>
+      <c r="C202" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>40</v>
+      </c>
+      <c r="B203" t="s">
+        <v>39</v>
+      </c>
+      <c r="C203" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>45</v>
+      </c>
+      <c r="B204" t="s">
+        <v>35</v>
+      </c>
+      <c r="C204" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>45</v>
+      </c>
+      <c r="B205" t="s">
+        <v>37</v>
+      </c>
+      <c r="C205" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>45</v>
+      </c>
+      <c r="B206" t="s">
+        <v>38</v>
+      </c>
+      <c r="C206" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>45</v>
+      </c>
+      <c r="B207" t="s">
+        <v>39</v>
+      </c>
+      <c r="C207" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>50</v>
+      </c>
+      <c r="B208" t="s">
+        <v>35</v>
+      </c>
+      <c r="C208" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>50</v>
+      </c>
+      <c r="B209" t="s">
+        <v>37</v>
+      </c>
+      <c r="C209" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>50</v>
+      </c>
+      <c r="B210" t="s">
+        <v>38</v>
+      </c>
+      <c r="C210" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>50</v>
+      </c>
+      <c r="B211" t="s">
+        <v>39</v>
+      </c>
+      <c r="C211" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>55</v>
+      </c>
+      <c r="B212" t="s">
+        <v>35</v>
+      </c>
+      <c r="C212" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>55</v>
+      </c>
+      <c r="B213" t="s">
+        <v>37</v>
+      </c>
+      <c r="C213" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>55</v>
+      </c>
+      <c r="B214" t="s">
+        <v>38</v>
+      </c>
+      <c r="C214" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>55</v>
+      </c>
+      <c r="B215" t="s">
+        <v>39</v>
+      </c>
+      <c r="C215" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>60</v>
+      </c>
+      <c r="B216" t="s">
+        <v>35</v>
+      </c>
+      <c r="C216" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>60</v>
+      </c>
+      <c r="B217" t="s">
+        <v>37</v>
+      </c>
+      <c r="C217" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>60</v>
+      </c>
+      <c r="B218" t="s">
+        <v>38</v>
+      </c>
+      <c r="C218" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>60</v>
+      </c>
+      <c r="B219" t="s">
+        <v>39</v>
+      </c>
+      <c r="C219" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>65</v>
+      </c>
+      <c r="B220" t="s">
+        <v>35</v>
+      </c>
+      <c r="C220" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>65</v>
+      </c>
+      <c r="B221" t="s">
+        <v>37</v>
+      </c>
+      <c r="C221" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>65</v>
+      </c>
+      <c r="B222" t="s">
+        <v>38</v>
+      </c>
+      <c r="C222" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>65</v>
+      </c>
+      <c r="B223" t="s">
+        <v>39</v>
+      </c>
+      <c r="C223" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>70</v>
+      </c>
+      <c r="B224" t="s">
+        <v>35</v>
+      </c>
+      <c r="C224" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>70</v>
+      </c>
+      <c r="B225" t="s">
+        <v>37</v>
+      </c>
+      <c r="C225" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>70</v>
+      </c>
+      <c r="B226" t="s">
+        <v>38</v>
+      </c>
+      <c r="C226" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>70</v>
+      </c>
+      <c r="B227" t="s">
+        <v>39</v>
+      </c>
+      <c r="C227" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>75</v>
+      </c>
+      <c r="B228" t="s">
+        <v>35</v>
+      </c>
+      <c r="C228" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>75</v>
+      </c>
+      <c r="B229" t="s">
+        <v>37</v>
+      </c>
+      <c r="C229" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>75</v>
+      </c>
+      <c r="B230" t="s">
+        <v>38</v>
+      </c>
+      <c r="C230" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>75</v>
+      </c>
+      <c r="B231" t="s">
+        <v>39</v>
+      </c>
+      <c r="C231" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results/overall.xlsx
+++ b/results/overall.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2763" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2798" uniqueCount="248">
   <si>
     <t>Criteria</t>
   </si>
@@ -139,27 +139,9 @@
     <t xml:space="preserve">    [Jaccard] Jaccard Coefficient External Evaluation: 0.4605089949506484</t>
   </si>
   <si>
-    <t>Modularity Q Criteria Calculator</t>
-  </si>
-  <si>
-    <t>Neighbour Overlap Distance Calculator</t>
-  </si>
-  <si>
     <t>0.10046756994808943</t>
   </si>
   <si>
-    <t>Edge Path Distance Calculator</t>
-  </si>
-  <si>
-    <t>Adjacency Relation Distance Calculator</t>
-  </si>
-  <si>
-    <t>Pearson Correlation Distance Calculator</t>
-  </si>
-  <si>
-    <t>C Index Criteria Calculator</t>
-  </si>
-  <si>
     <t>0.18064609786610283</t>
   </si>
   <si>
@@ -172,9 +154,6 @@
     <t>0.2258478458692724</t>
   </si>
   <si>
-    <t>Davies Bouldin Criteria Calculator</t>
-  </si>
-  <si>
     <t>1.1022267881136072</t>
   </si>
   <si>
@@ -187,9 +166,6 @@
     <t>0.9654637132956236</t>
   </si>
   <si>
-    <t>Silhouette Width Criteria 2 Calculator</t>
-  </si>
-  <si>
     <t>-0.027344210837022036</t>
   </si>
   <si>
@@ -202,9 +178,6 @@
     <t>-0.09474537669292894</t>
   </si>
   <si>
-    <t>Variance Ratio Criteria Calculator</t>
-  </si>
-  <si>
     <t>19.239870629476638</t>
   </si>
   <si>
@@ -217,9 +190,6 @@
     <t>12.6025350107332</t>
   </si>
   <si>
-    <t>PBM Criteria Calculator</t>
-  </si>
-  <si>
     <t>0.014039332551747304</t>
   </si>
   <si>
@@ -232,9 +202,6 @@
     <t>0.01756247213035195</t>
   </si>
   <si>
-    <t>Dunn Index Criteria Calculator</t>
-  </si>
-  <si>
     <t>0.7574074074074079</t>
   </si>
   <si>
@@ -247,9 +214,6 @@
     <t>0.3292723778722483</t>
   </si>
   <si>
-    <t>Z-Statistics Criteria Calculator</t>
-  </si>
-  <si>
     <t>390.23776422909236</t>
   </si>
   <si>
@@ -262,9 +226,6 @@
     <t>194.52756369360802</t>
   </si>
   <si>
-    <t>Point Biserial Criteria Calculator</t>
-  </si>
-  <si>
     <t>55.63821204182208</t>
   </si>
   <si>
@@ -728,6 +689,96 @@
   </si>
   <si>
     <t>CLUSTERING ALGORITHMS COMPARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modularity Q Criteria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neighbour Overlap Distance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edge Path Distance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjacency Relation Distance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pearson Correlation Distance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C Index Criteria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davies Bouldin Criteria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silhouette Width Criteria 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variance Ratio Criteria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PBM Criteria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dunn Index Criteria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z-Statistics Criteria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Point Biserial Criteria </t>
+  </si>
+  <si>
+    <t>C-Index NOD</t>
+  </si>
+  <si>
+    <t>C-Index ARD</t>
+  </si>
+  <si>
+    <t>C-Index PCD</t>
+  </si>
+  <si>
+    <t>0.4605089949506484</t>
+  </si>
+  <si>
+    <t>0.4866310160427806</t>
+  </si>
+  <si>
+    <t>0.5187105584220729</t>
+  </si>
+  <si>
+    <t>Jung Voltage Clustering</t>
+  </si>
+  <si>
+    <t>0.4526717087868168</t>
+  </si>
+  <si>
+    <t>0.495616880650531</t>
+  </si>
+  <si>
+    <t>0.6724051154863459</t>
+  </si>
+  <si>
+    <t>Jung Edge Betweenness</t>
+  </si>
+  <si>
+    <t>Jung Bicomponent</t>
+  </si>
+  <si>
+    <t>JavaML Density Based Spatial</t>
+  </si>
+  <si>
+    <t>JavaML Knode</t>
+  </si>
+  <si>
+    <t>JavaML Self Organizing Maps</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Jaccard Ex. Evaluation</t>
   </si>
 </sst>
 </file>
@@ -743,7 +794,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -774,8 +825,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -783,23 +840,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1122,35 +1199,35 @@
       <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="6"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="2:9">
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="10">
         <v>0.32259622500000001</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10">
         <v>0.52493504104070099</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10">
         <v>0.78015460744651399</v>
       </c>
-      <c r="I2" s="7"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="1" t="s">
@@ -3496,7 +3573,7 @@
   <sheetPr codeName="Arkusz1"/>
   <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -3517,35 +3594,35 @@
       <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="6"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="2:9">
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="10">
         <v>0.213101825438234</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10">
         <v>0.52588416718022302</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10">
         <v>0.80899199612009798</v>
       </c>
-      <c r="I2" s="7"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="1" t="s">
@@ -6192,8 +6269,8 @@
   <sheetPr codeName="Arkusz2"/>
   <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40:I145"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6213,35 +6290,35 @@
       <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="6"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="2:9">
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="10">
         <v>0.24062885431000799</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10">
         <v>0.53257950092133499</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10">
         <v>0.89071395560702404</v>
       </c>
-      <c r="I2" s="7"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="1" t="s">
@@ -8867,8 +8944,8 @@
   <sheetPr codeName="Arkusz3"/>
   <dimension ref="A1:S184"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView topLeftCell="A83" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I93" sqref="I93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8896,65 +8973,65 @@
       <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="6"/>
+      <c r="I1" s="9"/>
       <c r="L1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6" t="s">
+      <c r="O1" s="9"/>
+      <c r="P1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6" t="s">
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="6"/>
+      <c r="S1" s="9"/>
     </row>
     <row r="2" spans="2:19">
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="10">
         <v>0.32259622500000001</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10">
         <v>0.52493504104070099</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10">
         <v>0.78015460744651399</v>
       </c>
-      <c r="I2" s="7"/>
+      <c r="I2" s="10"/>
       <c r="M2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="10">
         <v>0.213101825438234</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7">
+      <c r="O2" s="10"/>
+      <c r="P2" s="10">
         <v>0.52588416718022302</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7">
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10">
         <v>0.80899199612009798</v>
       </c>
-      <c r="S2" s="7"/>
+      <c r="S2" s="10"/>
     </row>
     <row r="4" spans="2:19">
       <c r="B4" s="1" t="s">
@@ -10588,70 +10665,70 @@
       <c r="L39" t="s">
         <v>29</v>
       </c>
-      <c r="N39" s="6" t="s">
+      <c r="N39" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6" t="s">
+      <c r="O39" s="9"/>
+      <c r="P39" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6" t="s">
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="S39" s="6"/>
+      <c r="S39" s="9"/>
     </row>
     <row r="40" spans="1:19">
       <c r="A40" s="5"/>
       <c r="B40" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6" t="s">
+      <c r="E40" s="9"/>
+      <c r="F40" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6" t="s">
+      <c r="G40" s="9"/>
+      <c r="H40" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I40" s="6"/>
+      <c r="I40" s="9"/>
       <c r="J40" s="5"/>
       <c r="M40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N40" s="7">
+      <c r="N40" s="10">
         <v>0.24062885431000799</v>
       </c>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7">
+      <c r="O40" s="10"/>
+      <c r="P40" s="10">
         <v>0.53257950092133499</v>
       </c>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7">
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10">
         <v>0.89071395560702404</v>
       </c>
-      <c r="S40" s="7"/>
+      <c r="S40" s="10"/>
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="5"/>
       <c r="C41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="10">
         <v>0.32259622500000001</v>
       </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7">
+      <c r="E41" s="10"/>
+      <c r="F41" s="10">
         <v>0.52493504104070099</v>
       </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7">
+      <c r="G41" s="10"/>
+      <c r="H41" s="10">
         <v>0.78015460744651399</v>
       </c>
-      <c r="I41" s="7"/>
+      <c r="I41" s="10"/>
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:19">
@@ -12448,1772 +12525,1903 @@
       <c r="H78" s="2"/>
     </row>
     <row r="79" spans="1:19">
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1" t="s">
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G79" s="1"/>
+      <c r="G79" s="6"/>
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:19">
-      <c r="B80">
+      <c r="B80" s="7">
         <v>1</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="D80" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="G80" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="81" spans="2:10">
-      <c r="B81">
+      <c r="B81" s="7">
         <v>2</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" t="s">
+      <c r="D81" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="G81" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="82" spans="2:10">
-      <c r="B82">
+      <c r="B82" s="7">
         <v>3</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="D82" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="G82" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="83" spans="2:10">
-      <c r="B83">
+      <c r="B83" s="7">
         <v>4</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F83" t="s">
+      <c r="D83" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="G83" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="84" spans="2:10">
-      <c r="B84">
+      <c r="B84" s="7">
         <v>5</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F84" t="s">
+      <c r="E84" s="7"/>
+      <c r="F84" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="85" spans="2:10">
-      <c r="B85">
+      <c r="B85" s="7">
         <v>6</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F85" t="s">
+      <c r="D85" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="G85" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="86" spans="2:10">
-      <c r="B86">
+      <c r="B86" s="7">
         <v>7</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" t="s">
+      <c r="D86" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="G86" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="87" spans="2:10">
-      <c r="B87">
+      <c r="B87" s="7">
         <v>8</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" t="s">
+      <c r="D87" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="G87" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="88" spans="2:10">
-      <c r="B88">
+      <c r="B88" s="7">
         <v>9</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88" t="s">
+      <c r="D88" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="G88" s="8" t="s">
         <v>11</v>
       </c>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
     </row>
     <row r="89" spans="2:10">
-      <c r="B89">
-        <v>10</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="B89" s="7">
+        <v>10</v>
+      </c>
+      <c r="C89" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89" t="s">
+      <c r="D89" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G89" s="2" t="s">
+      <c r="G89" s="8" t="s">
         <v>10</v>
       </c>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
     </row>
     <row r="90" spans="2:10">
-      <c r="B90">
-        <v>11</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="B90" s="7">
+        <v>11</v>
+      </c>
+      <c r="C90" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F90" t="s">
+      <c r="D90" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="G90" s="8" t="s">
         <v>12</v>
       </c>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
     </row>
     <row r="91" spans="2:10">
-      <c r="B91">
-        <v>12</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="B91" s="7">
+        <v>12</v>
+      </c>
+      <c r="C91" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91" t="s">
+      <c r="D91" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="G91" s="8" t="s">
         <v>10</v>
       </c>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
     <row r="92" spans="2:10">
-      <c r="B92">
-        <v>13</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="B92" s="7">
+        <v>13</v>
+      </c>
+      <c r="C92" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="D92" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="G92" s="8" t="s">
         <v>12</v>
       </c>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
     </row>
     <row r="93" spans="2:10">
-      <c r="B93">
+      <c r="B93" s="7">
         <v>14</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F93" t="s">
+      <c r="D93" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G93" s="2" t="s">
+      <c r="G93" s="8" t="s">
         <v>10</v>
       </c>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
     </row>
     <row r="94" spans="2:10">
-      <c r="B94">
+      <c r="B94" s="7">
         <v>15</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" s="2" t="s">
+      <c r="D94" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" s="7"/>
+      <c r="F94" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G94" s="2" t="s">
+      <c r="G94" s="8" t="s">
         <v>11</v>
       </c>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
     </row>
     <row r="95" spans="2:10">
-      <c r="B95">
+      <c r="B95" s="7">
         <v>16</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F95" t="s">
+      <c r="D95" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G95" s="2" t="s">
+      <c r="G95" s="8" t="s">
         <v>12</v>
       </c>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
     </row>
     <row r="96" spans="2:10">
-      <c r="B96">
+      <c r="B96" s="7">
         <v>17</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F96" t="s">
+      <c r="D96" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G96" s="2" t="s">
+      <c r="G96" s="8" t="s">
         <v>13</v>
       </c>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
     </row>
     <row r="97" spans="2:10">
-      <c r="B97">
+      <c r="B97" s="7">
         <v>18</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F97" t="s">
+      <c r="D97" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G97" s="2" t="s">
+      <c r="G97" s="8" t="s">
         <v>10</v>
       </c>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
     </row>
     <row r="98" spans="2:10">
-      <c r="B98">
+      <c r="B98" s="7">
         <v>19</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F98" t="s">
+      <c r="D98" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G98" s="2" t="s">
+      <c r="G98" s="8" t="s">
         <v>11</v>
       </c>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
     </row>
     <row r="99" spans="2:10">
-      <c r="B99">
+      <c r="B99" s="7">
         <v>20</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F99" t="s">
+      <c r="D99" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G99" s="2" t="s">
+      <c r="G99" s="8" t="s">
         <v>13</v>
       </c>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
     </row>
     <row r="100" spans="2:10">
-      <c r="B100">
+      <c r="B100" s="7">
         <v>21</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F100" t="s">
+      <c r="D100" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="G100" s="8" t="s">
         <v>13</v>
       </c>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
     </row>
     <row r="101" spans="2:10">
-      <c r="B101">
+      <c r="B101" s="7">
         <v>22</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F101" s="2" t="s">
+      <c r="D101" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" s="7"/>
+      <c r="F101" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G101" s="2" t="s">
+      <c r="G101" s="8" t="s">
         <v>12</v>
       </c>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
     </row>
     <row r="102" spans="2:10">
-      <c r="B102">
+      <c r="B102" s="7">
         <v>23</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F102" t="s">
+      <c r="D102" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G102" s="2" t="s">
+      <c r="G102" s="8" t="s">
         <v>13</v>
       </c>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
     </row>
     <row r="103" spans="2:10">
-      <c r="B103">
+      <c r="B103" s="7">
         <v>24</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F103" t="s">
+      <c r="D103" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G103" s="2" t="s">
+      <c r="G103" s="8" t="s">
         <v>12</v>
       </c>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
     </row>
     <row r="104" spans="2:10">
-      <c r="B104">
+      <c r="B104" s="7">
         <v>25</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F104" t="s">
+      <c r="D104" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G104" s="2" t="s">
+      <c r="G104" s="8" t="s">
         <v>10</v>
       </c>
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
     </row>
     <row r="105" spans="2:10">
-      <c r="B105">
+      <c r="B105" s="7">
         <v>26</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F105" s="2" t="s">
+      <c r="D105" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" s="7"/>
+      <c r="F105" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G105" s="2" t="s">
+      <c r="G105" s="8" t="s">
         <v>10</v>
       </c>
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
     </row>
     <row r="106" spans="2:10">
-      <c r="B106">
+      <c r="B106" s="7">
         <v>27</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F106" s="2" t="s">
+      <c r="D106" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E106" s="7"/>
+      <c r="F106" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G106" s="2" t="s">
+      <c r="G106" s="8" t="s">
         <v>13</v>
       </c>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
     </row>
     <row r="107" spans="2:10">
-      <c r="B107">
+      <c r="B107" s="7">
         <v>28</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F107" t="s">
+      <c r="D107" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G107" s="2" t="s">
+      <c r="G107" s="8" t="s">
         <v>12</v>
       </c>
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
     </row>
     <row r="108" spans="2:10">
-      <c r="B108">
+      <c r="B108" s="7">
         <v>29</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F108" t="s">
+      <c r="D108" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G108" s="2" t="s">
+      <c r="G108" s="8" t="s">
         <v>12</v>
       </c>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
     </row>
     <row r="109" spans="2:10">
-      <c r="B109">
+      <c r="B109" s="7">
         <v>30</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F109" t="s">
+      <c r="D109" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G109" s="2" t="s">
+      <c r="G109" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="110" spans="2:10">
-      <c r="B110">
+      <c r="B110" s="7">
         <v>31</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F110" t="s">
+      <c r="D110" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G110" s="2" t="s">
+      <c r="G110" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="111" spans="2:10">
-      <c r="B111">
+      <c r="B111" s="7">
         <v>32</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F111" t="s">
+      <c r="D111" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G111" s="2" t="s">
+      <c r="G111" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="112" spans="2:10">
-      <c r="B112">
+      <c r="B112" s="7">
         <v>33</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F112" t="s">
+      <c r="D112" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G112" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="G112" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8">
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+    </row>
+    <row r="114" spans="2:8">
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
     </row>
     <row r="115" spans="2:8">
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1" t="s">
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G115" s="1"/>
+      <c r="G115" s="6"/>
       <c r="H115" s="1"/>
     </row>
     <row r="116" spans="2:8">
-      <c r="B116">
+      <c r="B116" s="7">
         <v>1</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F116" t="s">
+      <c r="D116" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G116" s="2" t="s">
+      <c r="G116" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="117" spans="2:8">
-      <c r="B117">
+      <c r="B117" s="7">
         <v>2</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F117" t="s">
+      <c r="D117" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G117" s="2" t="s">
+      <c r="G117" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="118" spans="2:8">
-      <c r="B118">
+      <c r="B118" s="7">
         <v>3</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F118" t="s">
+      <c r="D118" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G118" s="2" t="s">
+      <c r="G118" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="119" spans="2:8">
-      <c r="B119">
+      <c r="B119" s="7">
         <v>4</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F119" t="s">
+      <c r="E119" s="7"/>
+      <c r="F119" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G119" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="120" spans="2:8">
-      <c r="B120">
+      <c r="B120" s="7">
         <v>5</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D120" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F120" t="s">
+      <c r="D120" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G120" s="2" t="s">
+      <c r="G120" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="121" spans="2:8">
-      <c r="B121">
+      <c r="B121" s="7">
         <v>6</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F121" t="s">
+      <c r="D121" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G121" s="2" t="s">
+      <c r="G121" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="122" spans="2:8">
-      <c r="B122">
+      <c r="B122" s="7">
         <v>7</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F122" t="s">
+      <c r="D122" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G122" s="2" t="s">
+      <c r="G122" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="123" spans="2:8">
-      <c r="B123">
+      <c r="B123" s="7">
         <v>8</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F123" t="s">
+      <c r="D123" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G123" s="2" t="s">
+      <c r="G123" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="124" spans="2:8">
-      <c r="B124">
+      <c r="B124" s="7">
         <v>9</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F124" t="s">
+      <c r="D124" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G124" s="2" t="s">
+      <c r="G124" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="125" spans="2:8">
-      <c r="B125">
-        <v>10</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="B125" s="7">
+        <v>10</v>
+      </c>
+      <c r="C125" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F125" t="s">
+      <c r="D125" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G125" s="2" t="s">
+      <c r="G125" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="126" spans="2:8">
-      <c r="B126">
-        <v>11</v>
-      </c>
-      <c r="C126" s="2" t="s">
+      <c r="B126" s="7">
+        <v>11</v>
+      </c>
+      <c r="C126" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F126" t="s">
+      <c r="D126" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G126" s="2" t="s">
+      <c r="G126" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="127" spans="2:8">
-      <c r="B127">
-        <v>12</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="B127" s="7">
+        <v>12</v>
+      </c>
+      <c r="C127" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F127" t="s">
+      <c r="D127" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G127" s="2" t="s">
+      <c r="G127" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="128" spans="2:8">
-      <c r="B128">
-        <v>13</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="B128" s="7">
+        <v>13</v>
+      </c>
+      <c r="C128" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D128" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F128" s="2" t="s">
+      <c r="D128" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E128" s="7"/>
+      <c r="F128" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G128" s="2" t="s">
+      <c r="G128" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="129" spans="2:7">
-      <c r="B129">
+      <c r="B129" s="7">
         <v>14</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D129" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F129" t="s">
+      <c r="D129" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G129" s="2" t="s">
+      <c r="G129" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="130" spans="2:7">
-      <c r="B130">
+      <c r="B130" s="7">
         <v>15</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F130" t="s">
+      <c r="D130" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G130" s="2" t="s">
+      <c r="G130" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="131" spans="2:7">
-      <c r="B131">
+      <c r="B131" s="7">
         <v>16</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F131" t="s">
+      <c r="D131" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G131" s="2" t="s">
+      <c r="G131" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="132" spans="2:7">
-      <c r="B132">
+      <c r="B132" s="7">
         <v>17</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D132" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F132" t="s">
+      <c r="D132" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G132" s="2" t="s">
+      <c r="G132" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="133" spans="2:7">
-      <c r="B133">
+      <c r="B133" s="7">
         <v>18</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D133" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F133" t="s">
+      <c r="D133" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G133" s="2" t="s">
+      <c r="G133" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="134" spans="2:7">
-      <c r="B134">
+      <c r="B134" s="7">
         <v>19</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F134" s="2" t="s">
+      <c r="D134" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E134" s="7"/>
+      <c r="F134" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G134" s="2" t="s">
+      <c r="G134" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="135" spans="2:7">
-      <c r="B135">
+      <c r="B135" s="7">
         <v>20</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F135" t="s">
+      <c r="D135" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G135" s="2" t="s">
+      <c r="G135" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="136" spans="2:7">
-      <c r="B136">
+      <c r="B136" s="7">
         <v>21</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D136" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F136" t="s">
+      <c r="D136" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G136" s="2" t="s">
+      <c r="G136" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="137" spans="2:7">
-      <c r="B137">
+      <c r="B137" s="7">
         <v>22</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F137" t="s">
+      <c r="D137" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G137" s="2" t="s">
+      <c r="G137" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="138" spans="2:7">
-      <c r="B138">
+      <c r="B138" s="7">
         <v>23</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D138" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F138" t="s">
+      <c r="D138" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G138" s="2" t="s">
+      <c r="G138" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="139" spans="2:7">
-      <c r="B139">
+      <c r="B139" s="7">
         <v>24</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F139" s="2" t="s">
+      <c r="D139" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E139" s="7"/>
+      <c r="F139" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G139" s="2" t="s">
+      <c r="G139" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="140" spans="2:7">
-      <c r="B140">
+      <c r="B140" s="7">
         <v>25</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F140" t="s">
+      <c r="D140" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G140" s="2" t="s">
+      <c r="G140" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="141" spans="2:7">
-      <c r="B141">
+      <c r="B141" s="7">
         <v>26</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D141" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F141" t="s">
+      <c r="D141" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G141" s="2" t="s">
+      <c r="G141" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="142" spans="2:7">
-      <c r="B142">
+      <c r="B142" s="7">
         <v>27</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F142" s="2" t="s">
+      <c r="D142" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E142" s="7"/>
+      <c r="F142" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G142" s="2" t="s">
+      <c r="G142" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="143" spans="2:7">
-      <c r="B143">
+      <c r="B143" s="7">
         <v>28</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D143" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F143" t="s">
+      <c r="D143" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143" s="7"/>
+      <c r="F143" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G143" s="2" t="s">
+      <c r="G143" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="144" spans="2:7">
-      <c r="B144">
+      <c r="B144" s="7">
         <v>29</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D144" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F144" t="s">
+      <c r="D144" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E144" s="7"/>
+      <c r="F144" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G144" s="2" t="s">
+      <c r="G144" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="145" spans="2:8">
-      <c r="B145">
+      <c r="B145" s="7">
         <v>30</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D145" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F145" t="s">
+      <c r="D145" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E145" s="7"/>
+      <c r="F145" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G145" s="2" t="s">
+      <c r="G145" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="146" spans="2:8">
-      <c r="B146">
+      <c r="B146" s="7">
         <v>31</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D146" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F146" t="s">
+      <c r="D146" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E146" s="7"/>
+      <c r="F146" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G146" s="2" t="s">
+      <c r="G146" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="147" spans="2:8">
-      <c r="B147">
+      <c r="B147" s="7">
         <v>32</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D147" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F147" t="s">
+      <c r="D147" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E147" s="7"/>
+      <c r="F147" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G147" s="2" t="s">
+      <c r="G147" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="148" spans="2:8">
-      <c r="B148">
+      <c r="B148" s="7">
         <v>33</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D148" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F148" t="s">
+      <c r="D148" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E148" s="7"/>
+      <c r="F148" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G148" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="G148" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8">
+      <c r="B149" s="7"/>
+      <c r="C149" s="7"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="7"/>
+      <c r="G149" s="7"/>
+    </row>
+    <row r="150" spans="2:8">
+      <c r="B150" s="7"/>
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
+      <c r="G150" s="7"/>
     </row>
     <row r="151" spans="2:8">
-      <c r="B151" s="1" t="s">
+      <c r="B151" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C151" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1" t="s">
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G151" s="1"/>
+      <c r="G151" s="6"/>
       <c r="H151" s="1"/>
     </row>
     <row r="152" spans="2:8">
-      <c r="B152">
+      <c r="B152" s="7">
         <v>1</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D152" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F152" t="s">
+      <c r="D152" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E152" s="7"/>
+      <c r="F152" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G152" s="2" t="s">
+      <c r="G152" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="153" spans="2:8">
-      <c r="B153">
+      <c r="B153" s="7">
         <v>2</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D153" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F153" t="s">
+      <c r="D153" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E153" s="7"/>
+      <c r="F153" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G153" s="2" t="s">
+      <c r="G153" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="154" spans="2:8">
-      <c r="B154">
+      <c r="B154" s="7">
         <v>3</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F154" t="s">
+      <c r="D154" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G154" s="2" t="s">
+      <c r="G154" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="155" spans="2:8">
-      <c r="B155">
+      <c r="B155" s="7">
         <v>4</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D155" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F155" t="s">
+      <c r="D155" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G155" s="2" t="s">
+      <c r="G155" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="156" spans="2:8">
-      <c r="B156">
+      <c r="B156" s="7">
         <v>5</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F156" t="s">
+      <c r="E156" s="7"/>
+      <c r="F156" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G156" s="2" t="s">
+      <c r="G156" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="157" spans="2:8">
-      <c r="B157">
+      <c r="B157" s="7">
         <v>6</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D157" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F157" t="s">
+      <c r="D157" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E157" s="7"/>
+      <c r="F157" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G157" s="2" t="s">
+      <c r="G157" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="158" spans="2:8">
-      <c r="B158">
+      <c r="B158" s="7">
         <v>7</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D158" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F158" t="s">
+      <c r="D158" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E158" s="7"/>
+      <c r="F158" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G158" s="2" t="s">
+      <c r="G158" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="159" spans="2:8">
-      <c r="B159">
+      <c r="B159" s="7">
         <v>8</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D159" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F159" t="s">
+      <c r="D159" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E159" s="7"/>
+      <c r="F159" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G159" s="2" t="s">
+      <c r="G159" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="160" spans="2:8">
-      <c r="B160">
+      <c r="B160" s="7">
         <v>9</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D160" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F160" t="s">
+      <c r="D160" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G160" t="s">
+      <c r="G160" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="161" spans="2:7">
-      <c r="B161">
-        <v>10</v>
-      </c>
-      <c r="C161" t="s">
+      <c r="B161" s="7">
+        <v>10</v>
+      </c>
+      <c r="C161" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F161" t="s">
+      <c r="D161" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E161" s="7"/>
+      <c r="F161" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G161" s="2" t="s">
+      <c r="G161" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="162" spans="2:7">
-      <c r="B162">
-        <v>11</v>
-      </c>
-      <c r="C162" t="s">
+      <c r="B162" s="7">
+        <v>11</v>
+      </c>
+      <c r="C162" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F162" t="s">
+      <c r="D162" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E162" s="7"/>
+      <c r="F162" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G162" s="2" t="s">
+      <c r="G162" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="163" spans="2:7">
-      <c r="B163">
-        <v>12</v>
-      </c>
-      <c r="C163" t="s">
+      <c r="B163" s="7">
+        <v>12</v>
+      </c>
+      <c r="C163" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D163" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F163" t="s">
+      <c r="D163" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E163" s="7"/>
+      <c r="F163" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G163" s="2" t="s">
+      <c r="G163" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="164" spans="2:7">
-      <c r="B164">
-        <v>13</v>
-      </c>
-      <c r="C164" t="s">
+      <c r="B164" s="7">
+        <v>13</v>
+      </c>
+      <c r="C164" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D164" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F164" t="s">
+      <c r="D164" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E164" s="7"/>
+      <c r="F164" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G164" s="2" t="s">
+      <c r="G164" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="165" spans="2:7">
-      <c r="B165">
+      <c r="B165" s="7">
         <v>14</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D165" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F165" t="s">
+      <c r="D165" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E165" s="7"/>
+      <c r="F165" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G165" s="2" t="s">
+      <c r="G165" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="166" spans="2:7">
-      <c r="B166">
+      <c r="B166" s="7">
         <v>15</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D166" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F166" t="s">
+      <c r="D166" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E166" s="7"/>
+      <c r="F166" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G166" s="2" t="s">
+      <c r="G166" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="167" spans="2:7">
-      <c r="B167">
+      <c r="B167" s="7">
         <v>16</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D167" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F167" t="s">
+      <c r="D167" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E167" s="7"/>
+      <c r="F167" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G167" s="2" t="s">
+      <c r="G167" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="168" spans="2:7">
-      <c r="B168">
+      <c r="B168" s="7">
         <v>17</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D168" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F168" s="2" t="s">
+      <c r="D168" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E168" s="7"/>
+      <c r="F168" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G168" s="2" t="s">
+      <c r="G168" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="169" spans="2:7">
-      <c r="B169">
+      <c r="B169" s="7">
         <v>18</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D169" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F169" t="s">
+      <c r="D169" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E169" s="7"/>
+      <c r="F169" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G169" s="2" t="s">
+      <c r="G169" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="170" spans="2:7">
-      <c r="B170">
+      <c r="B170" s="7">
         <v>19</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F170" t="s">
+      <c r="D170" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E170" s="7"/>
+      <c r="F170" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G170" s="2" t="s">
+      <c r="G170" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="171" spans="2:7">
-      <c r="B171">
+      <c r="B171" s="7">
         <v>20</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D171" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F171" t="s">
+      <c r="D171" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E171" s="7"/>
+      <c r="F171" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G171" s="2" t="s">
+      <c r="G171" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="172" spans="2:7">
-      <c r="B172">
+      <c r="B172" s="7">
         <v>21</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C172" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D172" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F172" t="s">
+      <c r="D172" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E172" s="7"/>
+      <c r="F172" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G172" s="2" t="s">
+      <c r="G172" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="173" spans="2:7">
-      <c r="B173">
+      <c r="B173" s="7">
         <v>22</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D173" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F173" t="s">
+      <c r="D173" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E173" s="7"/>
+      <c r="F173" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G173" s="2" t="s">
+      <c r="G173" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="174" spans="2:7">
-      <c r="B174">
+      <c r="B174" s="7">
         <v>23</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D174" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F174" t="s">
+      <c r="D174" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E174" s="7"/>
+      <c r="F174" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G174" s="2" t="s">
+      <c r="G174" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="175" spans="2:7">
-      <c r="B175">
+      <c r="B175" s="7">
         <v>24</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D175" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F175" t="s">
+      <c r="D175" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E175" s="7"/>
+      <c r="F175" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G175" s="2" t="s">
+      <c r="G175" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="176" spans="2:7">
-      <c r="B176">
+      <c r="B176" s="7">
         <v>25</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D176" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F176" t="s">
+      <c r="D176" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E176" s="7"/>
+      <c r="F176" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G176" s="2" t="s">
+      <c r="G176" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="177" spans="2:7">
-      <c r="B177">
+      <c r="B177" s="7">
         <v>26</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D177" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F177" t="s">
+      <c r="D177" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E177" s="7"/>
+      <c r="F177" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G177" s="2" t="s">
+      <c r="G177" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="178" spans="2:7">
-      <c r="B178">
+      <c r="B178" s="7">
         <v>27</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D178" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F178" s="2" t="s">
+      <c r="D178" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E178" s="7"/>
+      <c r="F178" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G178" s="2" t="s">
+      <c r="G178" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="179" spans="2:7">
-      <c r="B179">
+      <c r="B179" s="7">
         <v>28</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D179" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F179" s="2" t="s">
+      <c r="D179" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E179" s="7"/>
+      <c r="F179" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G179" s="2" t="s">
+      <c r="G179" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="180" spans="2:7">
-      <c r="B180">
+      <c r="B180" s="7">
         <v>29</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C180" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D180" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F180" s="2" t="s">
+      <c r="D180" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E180" s="7"/>
+      <c r="F180" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G180" s="2" t="s">
+      <c r="G180" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="181" spans="2:7">
-      <c r="B181">
+      <c r="B181" s="7">
         <v>30</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C181" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D181" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F181" t="s">
+      <c r="D181" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E181" s="7"/>
+      <c r="F181" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G181" s="2" t="s">
+      <c r="G181" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="182" spans="2:7">
-      <c r="B182">
+      <c r="B182" s="7">
         <v>31</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C182" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F182" t="s">
+      <c r="D182" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E182" s="7"/>
+      <c r="F182" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G182" s="2" t="s">
+      <c r="G182" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="183" spans="2:7">
-      <c r="B183">
+      <c r="B183" s="7">
         <v>32</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D183" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F183" t="s">
+      <c r="D183" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E183" s="7"/>
+      <c r="F183" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G183" s="2" t="s">
+      <c r="G183" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="184" spans="2:7">
-      <c r="B184">
+      <c r="B184" s="7">
         <v>33</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C184" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D184" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F184" t="s">
+      <c r="D184" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E184" s="7"/>
+      <c r="F184" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G184" s="2" t="s">
+      <c r="G184" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -14228,6 +14436,9 @@
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="H41:I41"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
@@ -14237,9 +14448,6 @@
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R2:S2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
     <mergeCell ref="R40:S40"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="F40:G40"/>
@@ -14254,2463 +14462,2756 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C231"/>
+  <dimension ref="A1:N231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="63.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.75" customWidth="1"/>
     <col min="3" max="3" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.375" customWidth="1"/>
+    <col min="8" max="8" width="19.375" customWidth="1"/>
+    <col min="9" max="9" width="21.125" customWidth="1"/>
+    <col min="10" max="10" width="25.625" customWidth="1"/>
+    <col min="11" max="11" width="20.5" customWidth="1"/>
+    <col min="12" max="12" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="7" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="B38" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C91" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C129" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B156" s="7"/>
+      <c r="C156" s="7"/>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B157" s="7"/>
+      <c r="C157" s="7"/>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C167" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B194" s="7"/>
+      <c r="C194" s="7"/>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B195" s="7"/>
+      <c r="C195" s="7"/>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C205" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>34</v>
-      </c>
-      <c r="B47" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>40</v>
-      </c>
-      <c r="B49" t="s">
-        <v>37</v>
-      </c>
-      <c r="C49" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>40</v>
-      </c>
-      <c r="B50" t="s">
-        <v>38</v>
-      </c>
-      <c r="C50" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>40</v>
-      </c>
-      <c r="B51" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>45</v>
-      </c>
-      <c r="B52" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>45</v>
-      </c>
-      <c r="B53" t="s">
-        <v>37</v>
-      </c>
-      <c r="C53" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>45</v>
-      </c>
-      <c r="B54" t="s">
-        <v>38</v>
-      </c>
-      <c r="C54" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>45</v>
-      </c>
-      <c r="B55" t="s">
-        <v>39</v>
-      </c>
-      <c r="C55" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>50</v>
-      </c>
-      <c r="B56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C56" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>50</v>
-      </c>
-      <c r="B57" t="s">
-        <v>37</v>
-      </c>
-      <c r="C57" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>50</v>
-      </c>
-      <c r="B58" t="s">
-        <v>38</v>
-      </c>
-      <c r="C58" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>50</v>
-      </c>
-      <c r="B59" t="s">
-        <v>39</v>
-      </c>
-      <c r="C59" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>55</v>
-      </c>
-      <c r="B60" t="s">
-        <v>35</v>
-      </c>
-      <c r="C60" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>55</v>
-      </c>
-      <c r="B61" t="s">
-        <v>37</v>
-      </c>
-      <c r="C61" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>55</v>
-      </c>
-      <c r="B62" t="s">
-        <v>38</v>
-      </c>
-      <c r="C62" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>55</v>
-      </c>
-      <c r="B63" t="s">
-        <v>39</v>
-      </c>
-      <c r="C63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>60</v>
-      </c>
-      <c r="B64" t="s">
-        <v>35</v>
-      </c>
-      <c r="C64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>60</v>
-      </c>
-      <c r="B65" t="s">
-        <v>37</v>
-      </c>
-      <c r="C65" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>60</v>
-      </c>
-      <c r="B66" t="s">
-        <v>38</v>
-      </c>
-      <c r="C66" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>60</v>
-      </c>
-      <c r="B67" t="s">
-        <v>39</v>
-      </c>
-      <c r="C67" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>65</v>
-      </c>
-      <c r="B68" t="s">
-        <v>35</v>
-      </c>
-      <c r="C68" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>65</v>
-      </c>
-      <c r="B69" t="s">
-        <v>37</v>
-      </c>
-      <c r="C69" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>65</v>
-      </c>
-      <c r="B70" t="s">
-        <v>38</v>
-      </c>
-      <c r="C70" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>65</v>
-      </c>
-      <c r="B71" t="s">
-        <v>39</v>
-      </c>
-      <c r="C71" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>35</v>
-      </c>
-      <c r="C72" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>70</v>
-      </c>
-      <c r="B73" t="s">
-        <v>37</v>
-      </c>
-      <c r="C73" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>70</v>
-      </c>
-      <c r="B74" t="s">
-        <v>38</v>
-      </c>
-      <c r="C74" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>70</v>
-      </c>
-      <c r="B75" t="s">
-        <v>39</v>
-      </c>
-      <c r="C75" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>35</v>
-      </c>
-      <c r="C76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>37</v>
-      </c>
-      <c r="C77" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>75</v>
-      </c>
-      <c r="B78" t="s">
-        <v>38</v>
-      </c>
-      <c r="C78" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>75</v>
-      </c>
-      <c r="B79" t="s">
-        <v>39</v>
-      </c>
-      <c r="C79" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>34</v>
-      </c>
-      <c r="B82" t="s">
-        <v>35</v>
-      </c>
-      <c r="C82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>34</v>
-      </c>
-      <c r="B83" t="s">
-        <v>37</v>
-      </c>
-      <c r="C83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>34</v>
-      </c>
-      <c r="B84" t="s">
-        <v>38</v>
-      </c>
-      <c r="C84" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>34</v>
-      </c>
-      <c r="B85" t="s">
-        <v>39</v>
-      </c>
-      <c r="C85" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>40</v>
-      </c>
-      <c r="B86" t="s">
-        <v>35</v>
-      </c>
-      <c r="C86" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>40</v>
-      </c>
-      <c r="B87" t="s">
-        <v>37</v>
-      </c>
-      <c r="C87" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>40</v>
-      </c>
-      <c r="B88" t="s">
-        <v>38</v>
-      </c>
-      <c r="C88" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>40</v>
-      </c>
-      <c r="B89" t="s">
-        <v>39</v>
-      </c>
-      <c r="C89" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>45</v>
-      </c>
-      <c r="B90" t="s">
-        <v>35</v>
-      </c>
-      <c r="C90" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>45</v>
-      </c>
-      <c r="B91" t="s">
-        <v>37</v>
-      </c>
-      <c r="C91" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>45</v>
-      </c>
-      <c r="B92" t="s">
-        <v>38</v>
-      </c>
-      <c r="C92" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>45</v>
-      </c>
-      <c r="B93" t="s">
-        <v>39</v>
-      </c>
-      <c r="C93" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>50</v>
-      </c>
-      <c r="B94" t="s">
-        <v>35</v>
-      </c>
-      <c r="C94" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>50</v>
-      </c>
-      <c r="B95" t="s">
-        <v>37</v>
-      </c>
-      <c r="C95" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>50</v>
-      </c>
-      <c r="B96" t="s">
-        <v>38</v>
-      </c>
-      <c r="C96" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>50</v>
-      </c>
-      <c r="B97" t="s">
-        <v>39</v>
-      </c>
-      <c r="C97" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>55</v>
-      </c>
-      <c r="B98" t="s">
-        <v>35</v>
-      </c>
-      <c r="C98" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>55</v>
-      </c>
-      <c r="B99" t="s">
-        <v>37</v>
-      </c>
-      <c r="C99" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>55</v>
-      </c>
-      <c r="B100" t="s">
-        <v>38</v>
-      </c>
-      <c r="C100" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>55</v>
-      </c>
-      <c r="B101" t="s">
-        <v>39</v>
-      </c>
-      <c r="C101" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>60</v>
-      </c>
-      <c r="B102" t="s">
-        <v>35</v>
-      </c>
-      <c r="C102" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>60</v>
-      </c>
-      <c r="B103" t="s">
-        <v>37</v>
-      </c>
-      <c r="C103" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
-        <v>60</v>
-      </c>
-      <c r="B104" t="s">
-        <v>38</v>
-      </c>
-      <c r="C104" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
-        <v>60</v>
-      </c>
-      <c r="B105" t="s">
-        <v>39</v>
-      </c>
-      <c r="C105" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>65</v>
-      </c>
-      <c r="B106" t="s">
-        <v>35</v>
-      </c>
-      <c r="C106" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
-        <v>65</v>
-      </c>
-      <c r="B107" t="s">
-        <v>37</v>
-      </c>
-      <c r="C107" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
-        <v>65</v>
-      </c>
-      <c r="B108" t="s">
-        <v>38</v>
-      </c>
-      <c r="C108" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
-        <v>65</v>
-      </c>
-      <c r="B109" t="s">
-        <v>39</v>
-      </c>
-      <c r="C109" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="s">
-        <v>70</v>
-      </c>
-      <c r="B110" t="s">
-        <v>35</v>
-      </c>
-      <c r="C110" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="s">
-        <v>70</v>
-      </c>
-      <c r="B111" t="s">
-        <v>37</v>
-      </c>
-      <c r="C111" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="s">
-        <v>70</v>
-      </c>
-      <c r="B112" t="s">
-        <v>38</v>
-      </c>
-      <c r="C112" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="s">
-        <v>70</v>
-      </c>
-      <c r="B113" t="s">
-        <v>39</v>
-      </c>
-      <c r="C113" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="s">
-        <v>75</v>
-      </c>
-      <c r="B114" t="s">
-        <v>35</v>
-      </c>
-      <c r="C114" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="s">
-        <v>75</v>
-      </c>
-      <c r="B115" t="s">
-        <v>37</v>
-      </c>
-      <c r="C115" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="s">
-        <v>75</v>
-      </c>
-      <c r="B116" t="s">
-        <v>38</v>
-      </c>
-      <c r="C116" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" t="s">
-        <v>75</v>
-      </c>
-      <c r="B117" t="s">
-        <v>39</v>
-      </c>
-      <c r="C117" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="s">
-        <v>34</v>
-      </c>
-      <c r="B120" t="s">
-        <v>35</v>
-      </c>
-      <c r="C120" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="s">
-        <v>34</v>
-      </c>
-      <c r="B121" t="s">
-        <v>37</v>
-      </c>
-      <c r="C121" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" t="s">
-        <v>34</v>
-      </c>
-      <c r="B122" t="s">
-        <v>38</v>
-      </c>
-      <c r="C122" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" t="s">
-        <v>34</v>
-      </c>
-      <c r="B123" t="s">
-        <v>39</v>
-      </c>
-      <c r="C123" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" t="s">
-        <v>40</v>
-      </c>
-      <c r="B124" t="s">
-        <v>35</v>
-      </c>
-      <c r="C124" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" t="s">
-        <v>40</v>
-      </c>
-      <c r="B125" t="s">
-        <v>37</v>
-      </c>
-      <c r="C125" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" t="s">
-        <v>40</v>
-      </c>
-      <c r="B126" t="s">
-        <v>38</v>
-      </c>
-      <c r="C126" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="s">
-        <v>40</v>
-      </c>
-      <c r="B127" t="s">
-        <v>39</v>
-      </c>
-      <c r="C127" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" t="s">
-        <v>45</v>
-      </c>
-      <c r="B128" t="s">
-        <v>35</v>
-      </c>
-      <c r="C128" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="s">
-        <v>45</v>
-      </c>
-      <c r="B129" t="s">
-        <v>37</v>
-      </c>
-      <c r="C129" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="s">
-        <v>45</v>
-      </c>
-      <c r="B130" t="s">
-        <v>38</v>
-      </c>
-      <c r="C130" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" t="s">
-        <v>45</v>
-      </c>
-      <c r="B131" t="s">
-        <v>39</v>
-      </c>
-      <c r="C131" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" t="s">
-        <v>50</v>
-      </c>
-      <c r="B132" t="s">
-        <v>35</v>
-      </c>
-      <c r="C132" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" t="s">
-        <v>50</v>
-      </c>
-      <c r="B133" t="s">
-        <v>37</v>
-      </c>
-      <c r="C133" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" t="s">
-        <v>50</v>
-      </c>
-      <c r="B134" t="s">
-        <v>38</v>
-      </c>
-      <c r="C134" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" t="s">
-        <v>50</v>
-      </c>
-      <c r="B135" t="s">
-        <v>39</v>
-      </c>
-      <c r="C135" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" t="s">
-        <v>55</v>
-      </c>
-      <c r="B136" t="s">
-        <v>35</v>
-      </c>
-      <c r="C136" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" t="s">
-        <v>55</v>
-      </c>
-      <c r="B137" t="s">
-        <v>37</v>
-      </c>
-      <c r="C137" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" t="s">
-        <v>55</v>
-      </c>
-      <c r="B138" t="s">
-        <v>38</v>
-      </c>
-      <c r="C138" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" t="s">
-        <v>55</v>
-      </c>
-      <c r="B139" t="s">
-        <v>39</v>
-      </c>
-      <c r="C139" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" t="s">
-        <v>60</v>
-      </c>
-      <c r="B140" t="s">
-        <v>35</v>
-      </c>
-      <c r="C140" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" t="s">
-        <v>60</v>
-      </c>
-      <c r="B141" t="s">
-        <v>37</v>
-      </c>
-      <c r="C141" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" t="s">
-        <v>60</v>
-      </c>
-      <c r="B142" t="s">
-        <v>38</v>
-      </c>
-      <c r="C142" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" t="s">
-        <v>60</v>
-      </c>
-      <c r="B143" t="s">
-        <v>39</v>
-      </c>
-      <c r="C143" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" t="s">
-        <v>65</v>
-      </c>
-      <c r="B144" t="s">
-        <v>35</v>
-      </c>
-      <c r="C144" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" t="s">
-        <v>65</v>
-      </c>
-      <c r="B145" t="s">
-        <v>37</v>
-      </c>
-      <c r="C145" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" t="s">
-        <v>65</v>
-      </c>
-      <c r="B146" t="s">
-        <v>38</v>
-      </c>
-      <c r="C146" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" t="s">
-        <v>65</v>
-      </c>
-      <c r="B147" t="s">
-        <v>39</v>
-      </c>
-      <c r="C147" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" t="s">
-        <v>70</v>
-      </c>
-      <c r="B148" t="s">
-        <v>35</v>
-      </c>
-      <c r="C148" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" t="s">
-        <v>70</v>
-      </c>
-      <c r="B149" t="s">
-        <v>37</v>
-      </c>
-      <c r="C149" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" t="s">
-        <v>70</v>
-      </c>
-      <c r="B150" t="s">
-        <v>38</v>
-      </c>
-      <c r="C150" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" t="s">
-        <v>70</v>
-      </c>
-      <c r="B151" t="s">
-        <v>39</v>
-      </c>
-      <c r="C151" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" t="s">
-        <v>75</v>
-      </c>
-      <c r="B152" t="s">
-        <v>35</v>
-      </c>
-      <c r="C152" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" t="s">
-        <v>75</v>
-      </c>
-      <c r="B153" t="s">
-        <v>37</v>
-      </c>
-      <c r="C153" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" t="s">
-        <v>75</v>
-      </c>
-      <c r="B154" t="s">
-        <v>38</v>
-      </c>
-      <c r="C154" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" t="s">
-        <v>75</v>
-      </c>
-      <c r="B155" t="s">
-        <v>39</v>
-      </c>
-      <c r="C155" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" t="s">
-        <v>34</v>
-      </c>
-      <c r="B158" t="s">
-        <v>35</v>
-      </c>
-      <c r="C158" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" t="s">
-        <v>34</v>
-      </c>
-      <c r="B159" t="s">
-        <v>37</v>
-      </c>
-      <c r="C159" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" t="s">
-        <v>34</v>
-      </c>
-      <c r="B160" t="s">
-        <v>38</v>
-      </c>
-      <c r="C160" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" t="s">
-        <v>34</v>
-      </c>
-      <c r="B161" t="s">
-        <v>39</v>
-      </c>
-      <c r="C161" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" t="s">
-        <v>40</v>
-      </c>
-      <c r="B162" t="s">
-        <v>35</v>
-      </c>
-      <c r="C162" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" t="s">
-        <v>40</v>
-      </c>
-      <c r="B163" t="s">
-        <v>37</v>
-      </c>
-      <c r="C163" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" t="s">
-        <v>40</v>
-      </c>
-      <c r="B164" t="s">
-        <v>38</v>
-      </c>
-      <c r="C164" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" t="s">
-        <v>40</v>
-      </c>
-      <c r="B165" t="s">
-        <v>39</v>
-      </c>
-      <c r="C165" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" t="s">
-        <v>45</v>
-      </c>
-      <c r="B166" t="s">
-        <v>35</v>
-      </c>
-      <c r="C166" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" t="s">
-        <v>45</v>
-      </c>
-      <c r="B167" t="s">
-        <v>37</v>
-      </c>
-      <c r="C167" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" t="s">
-        <v>45</v>
-      </c>
-      <c r="B168" t="s">
-        <v>38</v>
-      </c>
-      <c r="C168" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" t="s">
-        <v>45</v>
-      </c>
-      <c r="B169" t="s">
-        <v>39</v>
-      </c>
-      <c r="C169" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" t="s">
-        <v>50</v>
-      </c>
-      <c r="B170" t="s">
-        <v>35</v>
-      </c>
-      <c r="C170" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" t="s">
-        <v>50</v>
-      </c>
-      <c r="B171" t="s">
-        <v>37</v>
-      </c>
-      <c r="C171" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" t="s">
-        <v>50</v>
-      </c>
-      <c r="B172" t="s">
-        <v>38</v>
-      </c>
-      <c r="C172" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" t="s">
-        <v>50</v>
-      </c>
-      <c r="B173" t="s">
-        <v>39</v>
-      </c>
-      <c r="C173" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" t="s">
-        <v>55</v>
-      </c>
-      <c r="B174" t="s">
-        <v>35</v>
-      </c>
-      <c r="C174" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" t="s">
-        <v>55</v>
-      </c>
-      <c r="B175" t="s">
-        <v>37</v>
-      </c>
-      <c r="C175" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" t="s">
-        <v>55</v>
-      </c>
-      <c r="B176" t="s">
-        <v>38</v>
-      </c>
-      <c r="C176" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" t="s">
-        <v>55</v>
-      </c>
-      <c r="B177" t="s">
-        <v>39</v>
-      </c>
-      <c r="C177" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" t="s">
-        <v>60</v>
-      </c>
-      <c r="B178" t="s">
-        <v>35</v>
-      </c>
-      <c r="C178" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" t="s">
-        <v>60</v>
-      </c>
-      <c r="B179" t="s">
-        <v>37</v>
-      </c>
-      <c r="C179" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" t="s">
-        <v>60</v>
-      </c>
-      <c r="B180" t="s">
-        <v>38</v>
-      </c>
-      <c r="C180" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" t="s">
-        <v>60</v>
-      </c>
-      <c r="B181" t="s">
-        <v>39</v>
-      </c>
-      <c r="C181" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" t="s">
-        <v>65</v>
-      </c>
-      <c r="B182" t="s">
-        <v>35</v>
-      </c>
-      <c r="C182" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" t="s">
-        <v>65</v>
-      </c>
-      <c r="B183" t="s">
-        <v>37</v>
-      </c>
-      <c r="C183" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" t="s">
-        <v>65</v>
-      </c>
-      <c r="B184" t="s">
-        <v>38</v>
-      </c>
-      <c r="C184" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" t="s">
-        <v>65</v>
-      </c>
-      <c r="B185" t="s">
-        <v>39</v>
-      </c>
-      <c r="C185" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" t="s">
-        <v>70</v>
-      </c>
-      <c r="B186" t="s">
-        <v>35</v>
-      </c>
-      <c r="C186" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" t="s">
-        <v>70</v>
-      </c>
-      <c r="B187" t="s">
-        <v>37</v>
-      </c>
-      <c r="C187" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" t="s">
-        <v>70</v>
-      </c>
-      <c r="B188" t="s">
-        <v>38</v>
-      </c>
-      <c r="C188" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" t="s">
-        <v>70</v>
-      </c>
-      <c r="B189" t="s">
-        <v>39</v>
-      </c>
-      <c r="C189" t="s">
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C206" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
-      <c r="A190" t="s">
-        <v>75</v>
-      </c>
-      <c r="B190" t="s">
-        <v>35</v>
-      </c>
-      <c r="C190" t="s">
+    <row r="207" spans="1:3">
+      <c r="A207" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C207" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
-      <c r="A191" t="s">
-        <v>75</v>
-      </c>
-      <c r="B191" t="s">
-        <v>37</v>
-      </c>
-      <c r="C191" t="s">
+    <row r="208" spans="1:3">
+      <c r="A208" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C208" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
-      <c r="A192" t="s">
-        <v>75</v>
-      </c>
-      <c r="B192" t="s">
-        <v>38</v>
-      </c>
-      <c r="C192" t="s">
+    <row r="209" spans="1:3">
+      <c r="A209" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C209" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
-      <c r="A193" t="s">
-        <v>75</v>
-      </c>
-      <c r="B193" t="s">
-        <v>39</v>
-      </c>
-      <c r="C193" t="s">
+    <row r="210" spans="1:3">
+      <c r="A210" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C210" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
-      <c r="A194" t="s">
+    <row r="211" spans="1:3">
+      <c r="A211" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C211" s="7" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
-      <c r="A195" t="s">
+    <row r="212" spans="1:3">
+      <c r="A212" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C212" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
-      <c r="A196" t="s">
-        <v>34</v>
-      </c>
-      <c r="B196" t="s">
-        <v>35</v>
-      </c>
-      <c r="C196" t="s">
+    <row r="213" spans="1:3">
+      <c r="A213" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C213" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
-      <c r="A197" t="s">
-        <v>34</v>
-      </c>
-      <c r="B197" t="s">
-        <v>37</v>
-      </c>
-      <c r="C197" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" t="s">
-        <v>34</v>
-      </c>
-      <c r="B198" t="s">
-        <v>38</v>
-      </c>
-      <c r="C198" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" t="s">
-        <v>34</v>
-      </c>
-      <c r="B199" t="s">
-        <v>39</v>
-      </c>
-      <c r="C199" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" t="s">
-        <v>40</v>
-      </c>
-      <c r="B200" t="s">
-        <v>35</v>
-      </c>
-      <c r="C200" t="s">
+    <row r="214" spans="1:3">
+      <c r="A214" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C214" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
-      <c r="A201" t="s">
-        <v>40</v>
-      </c>
-      <c r="B201" t="s">
-        <v>37</v>
-      </c>
-      <c r="C201" t="s">
+    <row r="215" spans="1:3">
+      <c r="A215" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C215" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
-      <c r="A202" t="s">
-        <v>40</v>
-      </c>
-      <c r="B202" t="s">
-        <v>38</v>
-      </c>
-      <c r="C202" t="s">
+    <row r="216" spans="1:3">
+      <c r="A216" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C216" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
-      <c r="A203" t="s">
-        <v>40</v>
-      </c>
-      <c r="B203" t="s">
-        <v>39</v>
-      </c>
-      <c r="C203" t="s">
+    <row r="217" spans="1:3">
+      <c r="A217" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C217" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
-      <c r="A204" t="s">
-        <v>45</v>
-      </c>
-      <c r="B204" t="s">
-        <v>35</v>
-      </c>
-      <c r="C204" t="s">
+    <row r="218" spans="1:3">
+      <c r="A218" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C218" s="7" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
-      <c r="A205" t="s">
-        <v>45</v>
-      </c>
-      <c r="B205" t="s">
-        <v>37</v>
-      </c>
-      <c r="C205" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" t="s">
-        <v>45</v>
-      </c>
-      <c r="B206" t="s">
-        <v>38</v>
-      </c>
-      <c r="C206" t="s">
+    <row r="219" spans="1:3">
+      <c r="A219" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C219" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
-      <c r="A207" t="s">
-        <v>45</v>
-      </c>
-      <c r="B207" t="s">
-        <v>39</v>
-      </c>
-      <c r="C207" t="s">
+    <row r="220" spans="1:3">
+      <c r="A220" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C220" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
-      <c r="A208" t="s">
-        <v>50</v>
-      </c>
-      <c r="B208" t="s">
-        <v>35</v>
-      </c>
-      <c r="C208" t="s">
+    <row r="221" spans="1:3">
+      <c r="A221" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C221" s="7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
-      <c r="A209" t="s">
-        <v>50</v>
-      </c>
-      <c r="B209" t="s">
-        <v>37</v>
-      </c>
-      <c r="C209" t="s">
+    <row r="222" spans="1:3">
+      <c r="A222" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C222" s="7" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
-      <c r="A210" t="s">
-        <v>50</v>
-      </c>
-      <c r="B210" t="s">
-        <v>38</v>
-      </c>
-      <c r="C210" t="s">
+    <row r="223" spans="1:3">
+      <c r="A223" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C223" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
-      <c r="A211" t="s">
-        <v>50</v>
-      </c>
-      <c r="B211" t="s">
-        <v>39</v>
-      </c>
-      <c r="C211" t="s">
+    <row r="224" spans="1:3">
+      <c r="A224" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C224" s="7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
-      <c r="A212" t="s">
-        <v>55</v>
-      </c>
-      <c r="B212" t="s">
-        <v>35</v>
-      </c>
-      <c r="C212" t="s">
+    <row r="225" spans="1:3">
+      <c r="A225" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C225" s="7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
-      <c r="A213" t="s">
-        <v>55</v>
-      </c>
-      <c r="B213" t="s">
-        <v>37</v>
-      </c>
-      <c r="C213" t="s">
+    <row r="226" spans="1:3">
+      <c r="A226" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C226" s="7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
-      <c r="A214" t="s">
-        <v>55</v>
-      </c>
-      <c r="B214" t="s">
-        <v>38</v>
-      </c>
-      <c r="C214" t="s">
+    <row r="227" spans="1:3">
+      <c r="A227" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C227" s="7" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
-      <c r="A215" t="s">
-        <v>55</v>
-      </c>
-      <c r="B215" t="s">
-        <v>39</v>
-      </c>
-      <c r="C215" t="s">
+    <row r="228" spans="1:3">
+      <c r="A228" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C228" s="7" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
-      <c r="A216" t="s">
-        <v>60</v>
-      </c>
-      <c r="B216" t="s">
-        <v>35</v>
-      </c>
-      <c r="C216" t="s">
+    <row r="229" spans="1:3">
+      <c r="A229" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C229" s="7" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
-      <c r="A217" t="s">
-        <v>60</v>
-      </c>
-      <c r="B217" t="s">
-        <v>37</v>
-      </c>
-      <c r="C217" t="s">
+    <row r="230" spans="1:3">
+      <c r="A230" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C230" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
-      <c r="A218" t="s">
-        <v>60</v>
-      </c>
-      <c r="B218" t="s">
-        <v>38</v>
-      </c>
-      <c r="C218" t="s">
+    <row r="231" spans="1:3">
+      <c r="A231" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C231" s="7" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219" t="s">
-        <v>60</v>
-      </c>
-      <c r="B219" t="s">
-        <v>39</v>
-      </c>
-      <c r="C219" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="A220" t="s">
-        <v>65</v>
-      </c>
-      <c r="B220" t="s">
-        <v>35</v>
-      </c>
-      <c r="C220" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" t="s">
-        <v>65</v>
-      </c>
-      <c r="B221" t="s">
-        <v>37</v>
-      </c>
-      <c r="C221" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" t="s">
-        <v>65</v>
-      </c>
-      <c r="B222" t="s">
-        <v>38</v>
-      </c>
-      <c r="C222" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" t="s">
-        <v>65</v>
-      </c>
-      <c r="B223" t="s">
-        <v>39</v>
-      </c>
-      <c r="C223" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" t="s">
-        <v>70</v>
-      </c>
-      <c r="B224" t="s">
-        <v>35</v>
-      </c>
-      <c r="C224" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
-      <c r="A225" t="s">
-        <v>70</v>
-      </c>
-      <c r="B225" t="s">
-        <v>37</v>
-      </c>
-      <c r="C225" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
-      <c r="A226" t="s">
-        <v>70</v>
-      </c>
-      <c r="B226" t="s">
-        <v>38</v>
-      </c>
-      <c r="C226" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="A227" t="s">
-        <v>70</v>
-      </c>
-      <c r="B227" t="s">
-        <v>39</v>
-      </c>
-      <c r="C227" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
-      <c r="A228" t="s">
-        <v>75</v>
-      </c>
-      <c r="B228" t="s">
-        <v>35</v>
-      </c>
-      <c r="C228" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="A229" t="s">
-        <v>75</v>
-      </c>
-      <c r="B229" t="s">
-        <v>37</v>
-      </c>
-      <c r="C229" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="A230" t="s">
-        <v>75</v>
-      </c>
-      <c r="B230" t="s">
-        <v>38</v>
-      </c>
-      <c r="C230" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
-      <c r="A231" t="s">
-        <v>75</v>
-      </c>
-      <c r="B231" t="s">
-        <v>39</v>
-      </c>
-      <c r="C231" t="s">
-        <v>229</v>
       </c>
     </row>
   </sheetData>
